--- a/df_1/df_1_11.xlsx
+++ b/df_1/df_1_11.xlsx
@@ -662,382 +662,382 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.2585 %</t>
+          <t>0,2585</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0039 %</t>
+          <t>0,0039</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0376 %</t>
+          <t>0,0376</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.0564 %</t>
+          <t>0,0564</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0196 %</t>
+          <t>0,0196</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0124 %</t>
+          <t>0,0124</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.0008 %</t>
+          <t>0,0008</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.0146 %</t>
+          <t>0,0146</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.0162 %</t>
+          <t>0,0162</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.0044 %</t>
+          <t>0,0044</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.006 %</t>
+          <t>0,006</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.0 %</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.001 %</t>
+          <t>0,001</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.0046 %</t>
+          <t>0,0046</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.1164 %</t>
+          <t>0,1164</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.0244 %</t>
+          <t>0,0244</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.0 %</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.0136 %</t>
+          <t>0,0136</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.0 %</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.0001 %</t>
+          <t>0,0001</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.0028 %</t>
+          <t>0,0028</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.0017 %</t>
+          <t>0,0017</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.0065 %</t>
+          <t>0,0065</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.0082 %</t>
+          <t>0,0082</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.0268 %</t>
+          <t>0,0268</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0306 %</t>
+          <t>0,0306</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.0023 %</t>
+          <t>0,0023</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.0053 %</t>
+          <t>0,0053</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.0 %</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.0042 %</t>
+          <t>0,0042</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.0888 %</t>
+          <t>0,0888</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.0002 %</t>
+          <t>0,0002</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.0022 %</t>
+          <t>0,0022</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.0127 %</t>
+          <t>0,0127</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.0914 %</t>
+          <t>0,0914</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.0013 %</t>
+          <t>0,0013</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.019 %</t>
+          <t>0,019</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.0045 %</t>
+          <t>0,0045</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.0404 %</t>
+          <t>0,0404</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.0003 %</t>
+          <t>0,0003</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.0051 %</t>
+          <t>0,0051</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.0029 %</t>
+          <t>0,0029</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.0048 %</t>
+          <t>0,0048</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.0044 %</t>
+          <t>0,0044</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.0069 %</t>
+          <t>0,0069</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.0196 %</t>
+          <t>0,0196</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.0474 %</t>
+          <t>0,0474</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.0028 %</t>
+          <t>0,0028</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.0076 %</t>
+          <t>0,0076</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.0703 %</t>
+          <t>0,0703</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.0247 %</t>
+          <t>0,0247</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.0111 %</t>
+          <t>0,0111</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.006 %</t>
+          <t>0,006</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.0 %</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.0146 %</t>
+          <t>0,0146</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.0 %</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.004 %</t>
+          <t>0,004</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.0053 %</t>
+          <t>0,0053</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.0023 %</t>
+          <t>0,0023</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.0671 %</t>
+          <t>0,0671</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.0361 %</t>
+          <t>0,0361</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.0021 %</t>
+          <t>0,0021</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.0093 %</t>
+          <t>0,0093</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.0101 %</t>
+          <t>0,0101</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.0569 %</t>
+          <t>0,0569</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.0223 %</t>
+          <t>0,0223</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.0033 %</t>
+          <t>0,0033</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.0203 %</t>
+          <t>0,0203</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.057 %</t>
+          <t>0,057</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.0019 %</t>
+          <t>0,0019</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.0132 %</t>
+          <t>0,0132</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.0578 %</t>
+          <t>0,0578</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.0442 %</t>
+          <t>0,0442</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>0.045 %</t>
+          <t>0,045</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>0.0083 %</t>
+          <t>0,0083</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>0.1242 %</t>
+          <t>0,1242</t>
         </is>
       </c>
     </row>
@@ -1049,242 +1049,242 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.4029 %</t>
+          <t>1,4029</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5062 %</t>
+          <t>0,5062</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.3829 %</t>
+          <t>0,3829</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.3864 %</t>
+          <t>0,3864</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.3913 %</t>
+          <t>0,3913</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3761 %</t>
+          <t>0,3761</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.3748 %</t>
+          <t>0,3748</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.4033 %</t>
+          <t>0,4033</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3643 %</t>
+          <t>0,3643</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.3599 %</t>
+          <t>0,3599</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.3599 %</t>
+          <t>0,3599</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.4375 %</t>
+          <t>0,4375</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.3539 %</t>
+          <t>0,3539</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.3533 %</t>
+          <t>0,3533</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.3452 %</t>
+          <t>0,3452</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.3824 %</t>
+          <t>0,3824</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.4055 %</t>
+          <t>0,4055</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.3689 %</t>
+          <t>0,3689</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.3525 %</t>
+          <t>0,3525</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.3448 %</t>
+          <t>0,3448</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.3427 %</t>
+          <t>0,3427</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.3467 %</t>
+          <t>0,3467</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.3521 %</t>
+          <t>0,3521</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.3582 %</t>
+          <t>0,3582</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.352 %</t>
+          <t>0,352</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.3685 %</t>
+          <t>0,3685</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.3582 %</t>
+          <t>0,3582</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.3525 %</t>
+          <t>0,3525</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.3477 %</t>
+          <t>0,3477</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.3671 %</t>
+          <t>0,3671</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.357 %</t>
+          <t>0,357</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.3647 %</t>
+          <t>0,3647</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.3689 %</t>
+          <t>0,3689</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.3599 %</t>
+          <t>0,3599</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.3715 %</t>
+          <t>0,3715</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.3654 %</t>
+          <t>0,3654</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.3674 %</t>
+          <t>0,3674</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.3691 %</t>
+          <t>0,3691</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.3772 %</t>
+          <t>0,3772</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.381 %</t>
+          <t>0,381</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.3743 %</t>
+          <t>0,3743</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.4103 %</t>
+          <t>0,4103</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.4224 %</t>
+          <t>0,4224</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.3969 %</t>
+          <t>0,3969</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.4014 %</t>
+          <t>0,4014</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>0.5232 %</t>
+          <t>0,5232</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>0.6002 %</t>
+          <t>0,6002</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1.3932 %</t>
+          <t>1,3932</t>
         </is>
       </c>
     </row>
@@ -1296,242 +1296,242 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.4741 %</t>
+          <t>0,4741</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.2716 %</t>
+          <t>0,2716</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.1635 %</t>
+          <t>0,1635</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.1004 %</t>
+          <t>0,1004</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0775 %</t>
+          <t>0,0775</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0685 %</t>
+          <t>0,0685</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.0655 %</t>
+          <t>0,0655</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0561 %</t>
+          <t>0,0561</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0473 %</t>
+          <t>0,0473</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.0418 %</t>
+          <t>0,0418</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0387 %</t>
+          <t>0,0387</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.033 %</t>
+          <t>0,033</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.0286 %</t>
+          <t>0,0286</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.031 %</t>
+          <t>0,031</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.0259 %</t>
+          <t>0,0259</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.0228 %</t>
+          <t>0,0228</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.0222 %</t>
+          <t>0,0222</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.0252 %</t>
+          <t>0,0252</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.0301 %</t>
+          <t>0,0301</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.0283 %</t>
+          <t>0,0283</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.0227 %</t>
+          <t>0,0227</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.0398 %</t>
+          <t>0,0398</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.0523 %</t>
+          <t>0,0523</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.043 %</t>
+          <t>0,043</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.0261 %</t>
+          <t>0,0261</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.023 %</t>
+          <t>0,023</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.0222 %</t>
+          <t>0,0222</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.0455 %</t>
+          <t>0,0455</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.0511 %</t>
+          <t>0,0511</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.0702 %</t>
+          <t>0,0702</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.0958 %</t>
+          <t>0,0958</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.047 %</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.0384 %</t>
+          <t>0,0384</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.0381 %</t>
+          <t>0,0381</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.0305 %</t>
+          <t>0,0305</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.05 %</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.0405 %</t>
+          <t>0,0405</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.0503 %</t>
+          <t>0,0503</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.0417 %</t>
+          <t>0,0417</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.0575 %</t>
+          <t>0,0575</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.0912 %</t>
+          <t>0,0912</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.115 %</t>
+          <t>0,115</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.1016 %</t>
+          <t>0,1016</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.0934 %</t>
+          <t>0,0934</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0.0577 %</t>
+          <t>0,0577</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>0.0394 %</t>
+          <t>0,0394</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>0.0519 %</t>
+          <t>0,0519</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>0.2406 %</t>
+          <t>0,2406</t>
         </is>
       </c>
     </row>
